--- a/Sprint4/Lab 4 Analysis.xlsx
+++ b/Sprint4/Lab 4 Analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B522ECFD-11BB-4521-BE0B-3770E934FA03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2484D28-AB85-4A55-88A0-662071022B9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>Tabu variables (modified)</t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>Tabu</t>
+  </si>
+  <si>
+    <t>Lab 4 vs. Lab 3</t>
   </si>
 </sst>
 </file>
@@ -116,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -148,11 +163,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -182,6 +210,11 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1700,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,12 +1746,18 @@
     <col min="3" max="4" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1732,8 +1771,23 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -1749,8 +1803,23 @@
       <c r="E3" s="1">
         <v>5.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="4">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2.4300000000000001E-5</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1.26E-5</v>
+      </c>
+      <c r="J3" s="20">
+        <v>7.0400000000000004E-5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>8.2999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1766,8 +1835,23 @@
       <c r="E4" s="1">
         <v>2.12E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4.5200000000000001E-5</v>
+      </c>
+      <c r="I4" s="19">
+        <v>2.2099999999999998E-5</v>
+      </c>
+      <c r="J4" s="21">
+        <v>4.6199999999999998E-5</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2.2599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="8"/>
       <c r="C5">
@@ -1779,8 +1863,23 @@
       <c r="E5" s="1">
         <v>1.0300000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="4">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="I5" s="18">
+        <v>6.2399999999999999E-4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.03E-4</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.2799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1794,8 +1893,23 @@
       <c r="E6" s="1">
         <v>6.2700000000000004E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3.16E-3</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1.39E-3</v>
+      </c>
+      <c r="J6" s="21">
+        <v>3.9100000000000002E-5</v>
+      </c>
+      <c r="K6" s="7">
+        <v>8.2299999999999995E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1811,8 +1925,23 @@
       <c r="E7" s="1">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="I7" s="18">
+        <v>7.2700000000000004E-3</v>
+      </c>
+      <c r="J7" s="20">
+        <v>4.5099999999999998E-5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2.4600000000000002E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8">
@@ -1824,8 +1953,23 @@
       <c r="E8" s="1">
         <v>6.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="6">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="J8" s="21">
+        <v>2.8600000000000001E-5</v>
+      </c>
+      <c r="K8" s="7">
+        <v>5.24E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9">
@@ -1837,8 +1981,23 @@
       <c r="E9" s="1">
         <v>0.108</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="4">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J9" s="20">
+        <v>2.8900000000000001E-5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5.9899999999999999E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1860,7 +2019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +2045,7 @@
         <v>4.9700000000000002E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +2065,7 @@
         <v>4.9400000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15">
@@ -1922,7 +2081,7 @@
         <v>2.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="10"/>
       <c r="C16">

--- a/Sprint4/Lab 4 Analysis.xlsx
+++ b/Sprint4/Lab 4 Analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2484D28-AB85-4A55-88A0-662071022B9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EFBA8ADE-E7B1-49F7-838C-60E1DF28FA19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -215,6 +215,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,7 +841,1678 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lab 4 Algorithm vs Lab 3 Algorithm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Efficiency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$H$3:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0200000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7200000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.4299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4049-4656-9860-2EDCD3B43B75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.1699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8399999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.2900000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4049-4656-9860-2EDCD3B43B75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$J$3:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.0400000000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6199999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.03E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9100000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5099999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8900000000000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4049-4656-9860-2EDCD3B43B75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$K$3:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2299999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.24E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9899999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4049-4656-9860-2EDCD3B43B75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="700009056"/>
+        <c:axId val="700009384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="700009056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51954046369203855"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700009384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="700009384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700009056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lab 4 Algorithm vs Lab 3 Algorithm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Efficiency (Logarithmic)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$H$3:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0200000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7200000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.4299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-214F-4F4D-B207-D8C45778D100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.1699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8399999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.2900000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-214F-4F4D-B207-D8C45778D100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$J$3:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.0400000000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6199999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.03E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9100000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5099999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8900000000000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-214F-4F4D-B207-D8C45778D100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$K$3:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2299999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.24E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9899999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-214F-4F4D-B207-D8C45778D100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="700009056"/>
+        <c:axId val="700009384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="700009056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51954046369203855"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700009384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="700009384"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700009056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1393,6 +3068,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1428,6 +4135,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09368C19-6394-42E2-A224-EF081E5E6343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28FF3B9-3E6D-42DB-B4DC-35B8C436C238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1735,8 +4518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,10 +4590,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="5">
-        <v>2.4300000000000001E-5</v>
+        <v>1.0200000000000001E-5</v>
       </c>
       <c r="I3" s="18">
-        <v>1.26E-5</v>
+        <v>2.1699999999999999E-5</v>
       </c>
       <c r="J3" s="20">
         <v>7.0400000000000004E-5</v>
@@ -1839,10 +4622,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="7">
-        <v>4.5200000000000001E-5</v>
+        <v>1.5699999999999999E-5</v>
       </c>
       <c r="I4" s="19">
-        <v>2.2099999999999998E-5</v>
+        <v>1.8600000000000001E-5</v>
       </c>
       <c r="J4" s="21">
         <v>4.6199999999999998E-5</v>
@@ -1867,10 +4650,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="5">
-        <v>5.6999999999999998E-4</v>
+        <v>7.7200000000000006E-5</v>
       </c>
       <c r="I5" s="18">
-        <v>6.2399999999999999E-4</v>
+        <v>2.8399999999999999E-5</v>
       </c>
       <c r="J5" s="4">
         <v>1.03E-4</v>
@@ -1896,11 +4679,11 @@
       <c r="G6" s="6">
         <v>7</v>
       </c>
-      <c r="H6" s="7">
-        <v>3.16E-3</v>
-      </c>
-      <c r="I6" s="19">
-        <v>1.39E-3</v>
+      <c r="H6" s="22">
+        <v>3.4299999999999999E-4</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1.63E-4</v>
       </c>
       <c r="J6" s="21">
         <v>3.9100000000000002E-5</v>
@@ -1928,11 +4711,11 @@
       <c r="G7" s="4">
         <v>8</v>
       </c>
-      <c r="H7" s="5">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="I7" s="18">
-        <v>7.2700000000000004E-3</v>
+      <c r="H7" s="24">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I7" s="25">
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="J7" s="20">
         <v>4.5099999999999998E-5</v>
@@ -1956,11 +4739,11 @@
       <c r="G8" s="6">
         <v>9</v>
       </c>
-      <c r="H8" s="7">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="I8" s="19">
-        <v>9.1399999999999995E-2</v>
+      <c r="H8" s="22">
+        <v>2.47E-2</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.01</v>
       </c>
       <c r="J8" s="21">
         <v>2.8600000000000001E-5</v>
@@ -1984,11 +4767,11 @@
       <c r="G9" s="4">
         <v>10</v>
       </c>
-      <c r="H9" s="5">
-        <v>1.17</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0.55600000000000005</v>
+      <c r="H9" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="I9" s="25">
+        <v>8.2900000000000001E-2</v>
       </c>
       <c r="J9" s="20">
         <v>2.8900000000000001E-5</v>
@@ -2248,7 +5031,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprint4/Lab 4 Analysis.xlsx
+++ b/Sprint4/Lab 4 Analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EFBA8ADE-E7B1-49F7-838C-60E1DF28FA19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53C1B7D5-0A46-4D2E-B73B-2E5F542061DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -4516,10 +4516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4529,8 +4529,7 @@
     <col min="3" max="4" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4977,6 +4976,15 @@
       <c r="D25" s="5">
         <v>1.5699999999999999E-4</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
@@ -4987,6 +4995,15 @@
       <c r="D26" s="7">
         <v>2.9300000000000002E-4</v>
       </c>
+      <c r="G26" s="4">
+        <v>4</v>
+      </c>
+      <c r="H26" s="18">
+        <v>2.1699999999999999E-5</v>
+      </c>
+      <c r="I26" s="20">
+        <v>7.0400000000000004E-5</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
@@ -4997,6 +5014,15 @@
       <c r="D27" s="5">
         <v>5.7899999999999998E-4</v>
       </c>
+      <c r="G27" s="6">
+        <v>5</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1.8600000000000001E-5</v>
+      </c>
+      <c r="I27" s="21">
+        <v>4.6199999999999998E-5</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
@@ -5006,6 +5032,15 @@
       <c r="D28" s="7">
         <v>7.8399999999999997E-4</v>
       </c>
+      <c r="G28" s="4">
+        <v>6</v>
+      </c>
+      <c r="H28" s="18">
+        <v>2.8399999999999999E-5</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.03E-4</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
@@ -5013,6 +5048,136 @@
       </c>
       <c r="D29" s="5">
         <v>1.07E-3</v>
+      </c>
+      <c r="G29" s="6">
+        <v>7</v>
+      </c>
+      <c r="H29" s="23">
+        <v>1.63E-4</v>
+      </c>
+      <c r="I29" s="21">
+        <v>3.9100000000000002E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G30" s="4">
+        <v>8</v>
+      </c>
+      <c r="H30" s="25">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="I30" s="20">
+        <v>4.5099999999999998E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G31" s="6">
+        <v>9</v>
+      </c>
+      <c r="H31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="21">
+        <v>2.8600000000000001E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G32" s="4">
+        <v>10</v>
+      </c>
+      <c r="H32" s="25">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="I32" s="20">
+        <v>2.8900000000000001E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G35" s="4">
+        <v>4</v>
+      </c>
+      <c r="H35" s="18">
+        <v>2.1699999999999999E-5</v>
+      </c>
+      <c r="I35" s="5">
+        <v>8.2999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G36" s="6">
+        <v>5</v>
+      </c>
+      <c r="H36" s="19">
+        <v>1.8600000000000001E-5</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2.2599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G37" s="4">
+        <v>6</v>
+      </c>
+      <c r="H37" s="18">
+        <v>2.8399999999999999E-5</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1.2799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G38" s="6">
+        <v>7</v>
+      </c>
+      <c r="H38" s="23">
+        <v>1.63E-4</v>
+      </c>
+      <c r="I38" s="7">
+        <v>8.2299999999999995E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G39" s="4">
+        <v>8</v>
+      </c>
+      <c r="H39" s="25">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="I39" s="5">
+        <v>2.4600000000000002E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G40" s="6">
+        <v>9</v>
+      </c>
+      <c r="H40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5.24E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G41" s="4">
+        <v>10</v>
+      </c>
+      <c r="H41" s="25">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="I41" s="5">
+        <v>5.9899999999999999E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint4/Lab 4 Analysis.xlsx
+++ b/Sprint4/Lab 4 Analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53C1B7D5-0A46-4D2E-B73B-2E5F542061DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C01B18D-C7BE-4706-B190-FF595ACA5A23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Lab 4 vs. Lab 3</t>
+  </si>
+  <si>
+    <t>Number of Crossovers per pair of chromosomes</t>
+  </si>
+  <si>
+    <t>GA vs DP</t>
+  </si>
+  <si>
+    <t>Tabu vs DP</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -192,9 +201,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,10 +221,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,11 +933,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$H$2</c:f>
+              <c:f>DATA!$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Brute Force</c:v>
+                  <c:v>Genetic Algorithm (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -949,7 +956,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:f>DATA!$C$30:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -957,52 +964,52 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DATA!$H$3:$H$9</c:f>
+              <c:f>DATA!$D$30:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0200000000000001E-5</c:v>
+                  <c:v>2.76E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5699999999999999E-5</c:v>
+                  <c:v>3.7799999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7200000000000006E-5</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>3.4299999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>2.47E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0.19</c:v>
+                  <c:v>3.3500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2700000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4399999999999996E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,11 +1026,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$I$2</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamic Programming</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1042,7 +1049,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:f>DATA!$C$30:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1050,52 +1057,34 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DATA!$I$3:$I$9</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.1699999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8600000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8399999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>1.63E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>9.7999999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>8.2900000000000001E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,11 +1101,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$J$2</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Genetic Algorithm</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1135,7 +1124,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:f>DATA!$C$30:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1143,52 +1132,34 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DATA!$J$3:$J$9</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.0400000000000004E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6199999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1.03E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9100000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5099999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8600000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8900000000000001E-5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,11 +1176,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$K$2</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tabu</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1228,7 +1199,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:f>DATA!$C$30:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1236,52 +1207,34 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DATA!$K$3:$K$9</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.2999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2599999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2799999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2299999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4600000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.24E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9899999999999999E-5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,11 +1674,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$H$2</c:f>
+              <c:f>DATA!$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Brute Force</c:v>
+                  <c:v>Genetic Algorithm (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1744,7 +1697,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:f>DATA!$C$30:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1752,52 +1705,52 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DATA!$H$3:$H$9</c:f>
+              <c:f>DATA!$D$30:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0200000000000001E-5</c:v>
+                  <c:v>2.76E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5699999999999999E-5</c:v>
+                  <c:v>3.7799999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7200000000000006E-5</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>3.4299999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>2.47E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0.19</c:v>
+                  <c:v>3.3500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2700000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4399999999999996E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,11 +1767,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$I$2</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamic Programming</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1837,7 +1790,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:f>DATA!$C$30:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1845,52 +1798,34 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DATA!$I$3:$I$9</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.1699999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8600000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8399999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>1.63E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>9.7999999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>8.2900000000000001E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,11 +1842,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$J$2</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Genetic Algorithm</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1930,7 +1865,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:f>DATA!$C$30:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1938,52 +1873,34 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DATA!$J$3:$J$9</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.0400000000000004E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6199999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1.03E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9100000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5099999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8600000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8900000000000001E-5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,11 +1917,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$K$2</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tabu</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2023,7 +1940,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DATA!$G$3:$G$9</c:f>
+              <c:f>DATA!$C$30:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2031,52 +1948,34 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DATA!$K$3:$K$9</c:f>
+              <c:f>DATA!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.2999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2599999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2799999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2299999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4600000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.24E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9899999999999999E-5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,6 +2331,1696 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Genetic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algorithm vs. Dynamic Programming Efficiency (Logarithmic)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$A$51:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$B$51:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.0400000000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6199999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9100000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5099999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8900000000000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23F2-4CF7-8568-1741D6A2347A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$A$51:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$C$51:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.1699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8399999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.2900000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23F2-4CF7-8568-1741D6A2347A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="466396696"/>
+        <c:axId val="466398664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="466396696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466398664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="466398664"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466396696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tabu Search vs. Dynamic Programming Efficiency (Logarithmic)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$A$60:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$B$60:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2299999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.24E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9899999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3A2-462E-8183-DFFB899CD24E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$A$60:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$C$60:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.1699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8399999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.2900000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C3A2-462E-8183-DFFB899CD24E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="664693088"/>
+        <c:axId val="664690792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664693088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664690792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664690792"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664693088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Genetic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algorithm vs. Tabu Efficiency (Logarithmic)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Algorithm (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6100000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3700000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.68E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2899999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2447-4157-AD55-3A1FB86B494C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabu (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.12E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2700000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2447-4157-AD55-3A1FB86B494C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696144168"/>
+        <c:axId val="696139576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696144168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696139576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="696139576"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Total Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696144168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2552,6 +4141,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3585,6 +5294,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4216,6 +7473,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>181122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>181122</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A1982DA-8788-4BCB-9039-384988CC554A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>602566</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297766</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E033AC8-638B-4B4A-87DD-B7ED710B5A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CFE1E6-15FA-49D1-9537-4DAB67AF26D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4232,8 +7603,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5872006-9D09-451D-B78D-A07EC361C1E7}" name="Table13" displayName="Table13" ref="C12:D20" totalsRowShown="0">
-  <autoFilter ref="C12:D20" xr:uid="{9AA0B70A-55A8-49FF-8409-8ABC01F988AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5872006-9D09-451D-B78D-A07EC361C1E7}" name="Table13" displayName="Table13" ref="C11:D19" totalsRowShown="0">
+  <autoFilter ref="C11:D19" xr:uid="{9AA0B70A-55A8-49FF-8409-8ABC01F988AD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{8F36E9A2-ACCD-4495-94E4-F94BF2CE9F4A}" name="Number of Nodes"/>
     <tableColumn id="2" xr3:uid="{9E5EDBC5-2913-4460-A819-A673285E22D6}" name="Genetic Algorithm (s)"/>
@@ -4243,8 +7614,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9B45707-1438-4BCC-B53E-CDB052961F5D}" name="Table14" displayName="Table14" ref="I12:J19" totalsRowShown="0">
-  <autoFilter ref="I12:J19" xr:uid="{EC8BD646-0B7A-4975-B45E-772AADAA7744}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9B45707-1438-4BCC-B53E-CDB052961F5D}" name="Table14" displayName="Table14" ref="H2:I9" totalsRowShown="0">
+  <autoFilter ref="H2:I9" xr:uid="{EC8BD646-0B7A-4975-B45E-772AADAA7744}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{01817981-5D94-4CAD-B3DC-520FBD73A32A}" name="Number of Nodes"/>
     <tableColumn id="3" xr3:uid="{5503E4AF-C595-40F4-844E-CFE13CD2FA29}" name="Tabu (s)"/>
@@ -4516,30 +7887,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A2:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -4553,27 +7921,22 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
+      <c r="I2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>3</v>
       </c>
       <c r="C3">
@@ -4585,28 +7948,25 @@
       <c r="E3" s="1">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G3" s="4">
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3" s="5">
-        <v>1.0200000000000001E-5</v>
-      </c>
-      <c r="I3" s="18">
-        <v>2.1699999999999999E-5</v>
-      </c>
-      <c r="J3" s="20">
-        <v>7.0400000000000004E-5</v>
-      </c>
-      <c r="K3" s="5">
-        <v>8.2999999999999998E-5</v>
+      <c r="I3" s="1">
+        <v>4.9700000000000002E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0.3</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -4617,25 +7977,20 @@
       <c r="E4" s="1">
         <v>2.12E-4</v>
       </c>
-      <c r="G4" s="6">
-        <v>5</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1.5699999999999999E-5</v>
-      </c>
-      <c r="I4" s="19">
-        <v>1.8600000000000001E-5</v>
-      </c>
-      <c r="J4" s="21">
-        <v>4.6199999999999998E-5</v>
-      </c>
-      <c r="K4" s="7">
-        <v>2.2599999999999999E-4</v>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.9400000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.3</v>
+      </c>
       <c r="C5">
         <v>100</v>
       </c>
@@ -4645,27 +8000,14 @@
       <c r="E5" s="1">
         <v>1.0300000000000001E-3</v>
       </c>
-      <c r="G5" s="4">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5">
-        <v>7.7200000000000006E-5</v>
-      </c>
-      <c r="I5" s="18">
-        <v>2.8399999999999999E-5</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1.03E-4</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1.2799999999999999E-4</v>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>200</v>
       </c>
@@ -4675,29 +8017,14 @@
       <c r="E6" s="1">
         <v>6.2700000000000004E-3</v>
       </c>
-      <c r="G6" s="6">
-        <v>7</v>
-      </c>
-      <c r="H6" s="22">
-        <v>3.4299999999999999E-4</v>
-      </c>
-      <c r="I6" s="23">
-        <v>1.63E-4</v>
-      </c>
-      <c r="J6" s="21">
-        <v>3.9100000000000002E-5</v>
-      </c>
-      <c r="K6" s="7">
-        <v>8.2299999999999995E-5</v>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.4299999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>300</v>
       </c>
@@ -4707,25 +8034,18 @@
       <c r="E7" s="1">
         <v>2.12E-2</v>
       </c>
-      <c r="G7" s="4">
-        <v>8</v>
-      </c>
-      <c r="H7" s="24">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="I7" s="25">
-        <v>9.7999999999999997E-4</v>
-      </c>
-      <c r="J7" s="20">
-        <v>4.5099999999999998E-5</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2.4600000000000002E-4</v>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.44E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8">
         <v>400</v>
       </c>
@@ -4735,25 +8055,20 @@
       <c r="E8" s="1">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="G8" s="6">
-        <v>9</v>
-      </c>
-      <c r="H8" s="22">
-        <v>2.47E-2</v>
-      </c>
-      <c r="I8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="J8" s="21">
-        <v>2.8600000000000001E-5</v>
-      </c>
-      <c r="K8" s="7">
-        <v>5.24E-5</v>
+      <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.6900000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C9">
         <v>500</v>
       </c>
@@ -4763,421 +8078,609 @@
       <c r="E9" s="1">
         <v>0.108</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9">
+        <v>500</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="24">
-        <v>0.19</v>
-      </c>
-      <c r="I9" s="25">
-        <v>8.2900000000000001E-2</v>
-      </c>
-      <c r="J9" s="20">
-        <v>2.8900000000000001E-5</v>
-      </c>
-      <c r="K9" s="5">
-        <v>5.9899999999999999E-5</v>
+      <c r="B11" s="9"/>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.6E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
+      <c r="D13" s="1">
+        <v>4.6600000000000001E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="12">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4.6E-5</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4.9700000000000002E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="10">
         <v>0.3</v>
       </c>
       <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.4900000000000003E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.7100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.15E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17">
+        <v>400</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.7600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.23E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1">
-        <v>4.6600000000000001E-5</v>
-      </c>
-      <c r="I14">
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5">
+        <v>9.3599999999999998E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="23">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
         <v>10</v>
       </c>
-      <c r="J14" s="1">
-        <v>4.9400000000000001E-5</v>
+      <c r="D22" s="7">
+        <v>3.5200000000000002E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="C23" s="4">
         <v>100</v>
       </c>
-      <c r="D15" s="1">
-        <v>3.4900000000000003E-4</v>
-      </c>
-      <c r="I15">
+      <c r="D23" s="5">
+        <v>1.5699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6">
+        <v>200</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2.9300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4">
+        <v>300</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5.7899999999999998E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="6">
+        <v>400</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7.8399999999999997E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="4">
+        <v>500</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.07E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2.76E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="23">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3.7799999999999997E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="C32" s="4">
         <v>100</v>
       </c>
-      <c r="J15" s="1">
-        <v>2.1700000000000001E-3</v>
+      <c r="D32" s="5">
+        <v>3.3500000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
-      <c r="C16">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="6">
         <v>200</v>
       </c>
-      <c r="D16" s="1">
-        <v>3.7100000000000002E-4</v>
-      </c>
-      <c r="I16">
-        <v>200</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4.4299999999999999E-3</v>
+      <c r="D33" s="7">
+        <v>3.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9"/>
-      <c r="C17">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="4">
         <v>300</v>
       </c>
-      <c r="D17" s="1">
-        <v>2.15E-3</v>
-      </c>
-      <c r="I17">
-        <v>300</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.44E-2</v>
+      <c r="D34" s="5">
+        <v>1.5499999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="6">
         <v>400</v>
       </c>
-      <c r="D18" s="1">
-        <v>1.7600000000000001E-3</v>
-      </c>
-      <c r="I18">
-        <v>400</v>
-      </c>
-      <c r="J18" s="1">
-        <v>3.6900000000000002E-2</v>
+      <c r="D35" s="7">
+        <v>8.2700000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C19">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="4">
         <v>500</v>
       </c>
-      <c r="D19" s="1">
-        <v>1.23E-3</v>
-      </c>
-      <c r="I19">
-        <v>500</v>
-      </c>
-      <c r="J19" s="1">
-        <v>8.6199999999999999E-2</v>
+      <c r="D36" s="5">
+        <v>9.4399999999999996E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1.0200000000000001E-5</v>
+      </c>
+      <c r="C42" s="17">
+        <v>2.1699999999999999E-5</v>
+      </c>
+      <c r="D42" s="19">
+        <v>7.0400000000000004E-5</v>
+      </c>
+      <c r="E42" s="5">
+        <v>8.2999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1.5699999999999999E-5</v>
+      </c>
+      <c r="C43" s="18">
+        <v>1.8600000000000001E-5</v>
+      </c>
+      <c r="D43" s="20">
+        <v>4.6199999999999998E-5</v>
+      </c>
+      <c r="E43" s="7">
+        <v>2.2599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>6</v>
+      </c>
+      <c r="B44" s="5">
+        <v>7.7200000000000006E-5</v>
+      </c>
+      <c r="C44" s="17">
+        <v>2.8399999999999999E-5</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1.03E-4</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1.2799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>7</v>
+      </c>
+      <c r="B45" s="7">
+        <v>3.4299999999999999E-4</v>
+      </c>
+      <c r="C45" s="21">
+        <v>1.63E-4</v>
+      </c>
+      <c r="D45" s="20">
+        <v>3.9100000000000002E-5</v>
+      </c>
+      <c r="E45" s="7">
+        <v>8.2299999999999995E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>8</v>
+      </c>
+      <c r="B46" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="C46" s="22">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="D46" s="19">
+        <v>4.5099999999999998E-5</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2.4600000000000002E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>9</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2.47E-2</v>
+      </c>
+      <c r="C47" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D47" s="20">
+        <v>2.8600000000000001E-5</v>
+      </c>
+      <c r="E47" s="7">
+        <v>5.24E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>10</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="2" t="s">
+      <c r="B48" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="C48" s="22">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="D48" s="19">
+        <v>2.8900000000000001E-5</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5.9899999999999999E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>1</v>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="12">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>4</v>
       </c>
-      <c r="D23" s="5">
-        <v>9.3599999999999998E-5</v>
+      <c r="B51" s="19">
+        <v>7.0400000000000004E-5</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2.1699999999999999E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>5</v>
+      </c>
+      <c r="B52" s="20">
+        <v>4.6199999999999998E-5</v>
+      </c>
+      <c r="C52" s="18">
+        <v>1.8600000000000001E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>6</v>
+      </c>
+      <c r="B53" s="19">
+        <v>1.03E-4</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2.8399999999999999E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>7</v>
+      </c>
+      <c r="B54" s="20">
+        <v>3.9100000000000002E-5</v>
+      </c>
+      <c r="C54" s="21">
+        <v>1.63E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>8</v>
+      </c>
+      <c r="B55" s="19">
+        <v>4.5099999999999998E-5</v>
+      </c>
+      <c r="C55" s="22">
+        <v>9.7999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>9</v>
+      </c>
+      <c r="B56" s="20">
+        <v>2.8600000000000001E-5</v>
+      </c>
+      <c r="C56" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>10</v>
+      </c>
+      <c r="B57" s="19">
+        <v>2.8900000000000001E-5</v>
+      </c>
+      <c r="C57" s="22">
+        <v>8.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B60" s="5">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="C60" s="17">
+        <v>2.1699999999999999E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>5</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2.2599999999999999E-4</v>
+      </c>
+      <c r="C61" s="18">
+        <v>1.8600000000000001E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>6</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1.2799999999999999E-4</v>
+      </c>
+      <c r="C62" s="17">
+        <v>2.8399999999999999E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>7</v>
+      </c>
+      <c r="B63" s="7">
+        <v>8.2299999999999995E-5</v>
+      </c>
+      <c r="C63" s="21">
+        <v>1.63E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>8</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2.4600000000000002E-4</v>
+      </c>
+      <c r="C64" s="22">
+        <v>9.7999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>9</v>
+      </c>
+      <c r="B65" s="7">
+        <v>5.24E-5</v>
+      </c>
+      <c r="C65" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
-        <v>3.5200000000000002E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="4">
-        <v>100</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1.5699999999999999E-4</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="6">
-        <v>200</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2.9300000000000002E-4</v>
-      </c>
-      <c r="G26" s="4">
-        <v>4</v>
-      </c>
-      <c r="H26" s="18">
-        <v>2.1699999999999999E-5</v>
-      </c>
-      <c r="I26" s="20">
-        <v>7.0400000000000004E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="4">
-        <v>300</v>
-      </c>
-      <c r="D27" s="5">
-        <v>5.7899999999999998E-4</v>
-      </c>
-      <c r="G27" s="6">
-        <v>5</v>
-      </c>
-      <c r="H27" s="19">
-        <v>1.8600000000000001E-5</v>
-      </c>
-      <c r="I27" s="21">
-        <v>4.6199999999999998E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="6">
-        <v>400</v>
-      </c>
-      <c r="D28" s="7">
-        <v>7.8399999999999997E-4</v>
-      </c>
-      <c r="G28" s="4">
-        <v>6</v>
-      </c>
-      <c r="H28" s="18">
-        <v>2.8399999999999999E-5</v>
-      </c>
-      <c r="I28" s="4">
-        <v>1.03E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="4">
-        <v>500</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1.07E-3</v>
-      </c>
-      <c r="G29" s="6">
-        <v>7</v>
-      </c>
-      <c r="H29" s="23">
-        <v>1.63E-4</v>
-      </c>
-      <c r="I29" s="21">
-        <v>3.9100000000000002E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G30" s="4">
-        <v>8</v>
-      </c>
-      <c r="H30" s="25">
-        <v>9.7999999999999997E-4</v>
-      </c>
-      <c r="I30" s="20">
-        <v>4.5099999999999998E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G31" s="6">
-        <v>9</v>
-      </c>
-      <c r="H31" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="I31" s="21">
-        <v>2.8600000000000001E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G32" s="4">
-        <v>10</v>
-      </c>
-      <c r="H32" s="25">
+      <c r="B66" s="5">
+        <v>5.9899999999999999E-5</v>
+      </c>
+      <c r="C66" s="22">
         <v>8.2900000000000001E-2</v>
-      </c>
-      <c r="I32" s="20">
-        <v>2.8900000000000001E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G35" s="4">
-        <v>4</v>
-      </c>
-      <c r="H35" s="18">
-        <v>2.1699999999999999E-5</v>
-      </c>
-      <c r="I35" s="5">
-        <v>8.2999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G36" s="6">
-        <v>5</v>
-      </c>
-      <c r="H36" s="19">
-        <v>1.8600000000000001E-5</v>
-      </c>
-      <c r="I36" s="7">
-        <v>2.2599999999999999E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G37" s="4">
-        <v>6</v>
-      </c>
-      <c r="H37" s="18">
-        <v>2.8399999999999999E-5</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1.2799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G38" s="6">
-        <v>7</v>
-      </c>
-      <c r="H38" s="23">
-        <v>1.63E-4</v>
-      </c>
-      <c r="I38" s="7">
-        <v>8.2299999999999995E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G39" s="4">
-        <v>8</v>
-      </c>
-      <c r="H39" s="25">
-        <v>9.7999999999999997E-4</v>
-      </c>
-      <c r="I39" s="5">
-        <v>2.4600000000000002E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G40" s="6">
-        <v>9</v>
-      </c>
-      <c r="H40" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="I40" s="7">
-        <v>5.24E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G41" s="4">
-        <v>10</v>
-      </c>
-      <c r="H41" s="25">
-        <v>8.2900000000000001E-2</v>
-      </c>
-      <c r="I41" s="5">
-        <v>5.9899999999999999E-5</v>
       </c>
     </row>
   </sheetData>
@@ -5195,8 +8698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA4FE76-ECFC-4CD9-B2F6-427E96ACFFF8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprint4/Lab 4 Analysis.xlsx
+++ b/Sprint4/Lab 4 Analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C01B18D-C7BE-4706-B190-FF595ACA5A23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17497C35-A089-47BB-969A-972ABB18119C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,7 @@
     <sheet name="Graphs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -81,6 +82,12 @@
   </si>
   <si>
     <t>Tabu vs DP</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Maximum Nodes Handled</t>
   </si>
 </sst>
 </file>
@@ -7624,6 +7631,28 @@
 </table>
 </file>
 
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4FE1529C-5CB8-4DFF-9C80-F5935566AB16}" name="Table4" displayName="Table4" ref="H14:I16" totalsRowShown="0">
+  <autoFilter ref="H14:I16" xr:uid="{3AE498BB-3429-45DE-B636-727DDE97F1B8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9D829D76-4F13-452E-8199-2D929FDA3F43}" name="Nodes"/>
+    <tableColumn id="2" xr3:uid="{0302B9C1-6913-4CAA-A9AD-A22A96F0E5EB}" name="Genetic Algorithm"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{30FD7FE3-4B05-46C8-A87C-652D787FB33E}" name="Table5" displayName="Table5" ref="H19:I21" totalsRowShown="0">
+  <autoFilter ref="H19:I21" xr:uid="{F2460306-DB11-4C48-BF4A-D8F0DC1A8D8C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B171E0F4-359A-4346-8CD8-628017BB796A}" name="Nodes"/>
+    <tableColumn id="2" xr3:uid="{C5397EFF-1474-4AC9-8848-AD78D6E9FEB4}" name="Tabu"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7890,7 +7919,7 @@
   <dimension ref="A2:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8124,6 +8153,9 @@
       <c r="D13" s="1">
         <v>4.6600000000000001E-5</v>
       </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
@@ -8137,6 +8169,12 @@
       </c>
       <c r="D14" s="1">
         <v>3.4900000000000003E-4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -8148,6 +8186,12 @@
       <c r="D15" s="1">
         <v>3.7100000000000002E-4</v>
       </c>
+      <c r="H15">
+        <v>150000</v>
+      </c>
+      <c r="I15">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -8158,8 +8202,14 @@
       <c r="D16" s="1">
         <v>2.15E-3</v>
       </c>
+      <c r="H16">
+        <v>1000000</v>
+      </c>
+      <c r="I16">
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17">
         <v>400</v>
@@ -8168,7 +8218,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>500</v>
       </c>
@@ -8176,10 +8226,16 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
@@ -8190,8 +8246,14 @@
       <c r="D20" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1300</v>
+      </c>
+      <c r="I20">
+        <v>1.38</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>3</v>
       </c>
@@ -8204,8 +8266,14 @@
       <c r="D21" s="5">
         <v>9.3599999999999998E-5</v>
       </c>
+      <c r="H21">
+        <v>2600</v>
+      </c>
+      <c r="I21">
+        <v>10.3</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
@@ -8219,7 +8287,7 @@
         <v>3.5200000000000002E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>4</v>
       </c>
@@ -8233,7 +8301,7 @@
         <v>1.5699999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="10"/>
       <c r="C24" s="6">
@@ -8243,7 +8311,7 @@
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4">
@@ -8253,7 +8321,7 @@
         <v>5.7899999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="6">
         <v>400</v>
@@ -8262,7 +8330,7 @@
         <v>7.8399999999999997E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>500</v>
       </c>
@@ -8270,7 +8338,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>10</v>
       </c>
@@ -8282,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>3</v>
       </c>
@@ -8296,7 +8364,7 @@
         <v>2.76E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>17</v>
       </c>
@@ -8310,7 +8378,7 @@
         <v>3.7799999999999997E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
@@ -8686,10 +8754,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
